--- a/Ligas/Liga_colombia_2025.xlsx
+++ b/Ligas/Liga_colombia_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D1270C-ABD1-46FE-8BE9-EFAC2B075A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF989BE-134E-46D0-B48E-F9BC23A93F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="199">
   <si>
     <t>Fecha</t>
   </si>
@@ -617,12 +617,6 @@
   </si>
   <si>
     <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>Empate</t>
-  </si>
-  <si>
-    <t>Resultado</t>
   </si>
 </sst>
 </file>
@@ -685,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -693,7 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S227"/>
+  <dimension ref="A1:R227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R171" sqref="R171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1016,7 @@
     <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,11 +1071,8 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1137,11 +1127,8 @@
       <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1196,11 +1183,8 @@
       <c r="R3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1255,11 +1239,8 @@
       <c r="R4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1314,11 +1295,8 @@
       <c r="R5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1373,11 +1351,8 @@
       <c r="R6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -1432,11 +1407,8 @@
       <c r="R7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1491,11 +1463,8 @@
       <c r="R8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
@@ -1550,11 +1519,8 @@
       <c r="R9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1609,11 +1575,8 @@
       <c r="R10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
@@ -1668,11 +1631,8 @@
       <c r="R11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
@@ -1727,11 +1687,8 @@
       <c r="R12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
@@ -1786,11 +1743,8 @@
       <c r="R13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
@@ -1845,11 +1799,8 @@
       <c r="R14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -1904,11 +1855,8 @@
       <c r="R15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
@@ -1963,11 +1911,8 @@
       <c r="R16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
@@ -2022,11 +1967,8 @@
       <c r="R17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>67</v>
       </c>
@@ -2081,11 +2023,8 @@
       <c r="R18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
@@ -2140,11 +2079,8 @@
       <c r="R19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S19" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>72</v>
       </c>
@@ -2199,11 +2135,8 @@
       <c r="R20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -2258,11 +2191,8 @@
       <c r="R21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>75</v>
       </c>
@@ -2317,11 +2247,8 @@
       <c r="R22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
@@ -2376,11 +2303,8 @@
       <c r="R23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>75</v>
       </c>
@@ -2435,11 +2359,8 @@
       <c r="R24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -2494,11 +2415,8 @@
       <c r="R25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -2553,11 +2471,8 @@
       <c r="R26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -2612,11 +2527,8 @@
       <c r="R27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -2671,11 +2583,8 @@
       <c r="R28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S28" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
@@ -2730,11 +2639,8 @@
       <c r="R29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2789,11 +2695,8 @@
       <c r="R30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S30" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -2848,11 +2751,8 @@
       <c r="R31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="S31" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
@@ -2907,11 +2807,8 @@
       <c r="R32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>81</v>
       </c>
@@ -2966,11 +2863,8 @@
       <c r="R33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>86</v>
       </c>
@@ -3025,11 +2919,8 @@
       <c r="R34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S34" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
@@ -3084,11 +2975,8 @@
       <c r="R35" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
@@ -3143,11 +3031,8 @@
       <c r="R36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S36" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>89</v>
       </c>
@@ -3202,11 +3087,8 @@
       <c r="R37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S37" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>90</v>
       </c>
@@ -3225,8 +3107,12 @@
       <c r="F38" s="2">
         <v>1336562</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
+      <c r="H38" s="2">
+        <v>4</v>
+      </c>
       <c r="I38" s="2">
         <v>3</v>
       </c>
@@ -3251,13 +3137,14 @@
       <c r="P38" s="2">
         <v>0</v>
       </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q38" s="2">
+        <v>55</v>
+      </c>
+      <c r="R38" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>90</v>
       </c>
@@ -3312,11 +3199,8 @@
       <c r="R39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S39" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>91</v>
       </c>
@@ -3371,11 +3255,8 @@
       <c r="R40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S40" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3430,11 +3311,8 @@
       <c r="R41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>94</v>
       </c>
@@ -3489,11 +3367,8 @@
       <c r="R42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>97</v>
       </c>
@@ -3548,11 +3423,8 @@
       <c r="R43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>97</v>
       </c>
@@ -3607,11 +3479,8 @@
       <c r="R44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>97</v>
       </c>
@@ -3666,11 +3535,8 @@
       <c r="R45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>100</v>
       </c>
@@ -3725,11 +3591,8 @@
       <c r="R46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>101</v>
       </c>
@@ -3784,11 +3647,8 @@
       <c r="R47" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>101</v>
       </c>
@@ -3843,11 +3703,8 @@
       <c r="R48" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>102</v>
       </c>
@@ -3902,11 +3759,8 @@
       <c r="R49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>102</v>
       </c>
@@ -3961,11 +3815,8 @@
       <c r="R50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S50" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>105</v>
       </c>
@@ -4020,11 +3871,8 @@
       <c r="R51" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S51" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>105</v>
       </c>
@@ -4079,11 +3927,8 @@
       <c r="R52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>105</v>
       </c>
@@ -4138,11 +3983,8 @@
       <c r="R53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="S53" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>110</v>
       </c>
@@ -4197,11 +4039,8 @@
       <c r="R54" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>111</v>
       </c>
@@ -4256,11 +4095,8 @@
       <c r="R55" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S55" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -4315,11 +4151,8 @@
       <c r="R56" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S56" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>113</v>
       </c>
@@ -4374,11 +4207,8 @@
       <c r="R57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
@@ -4433,11 +4263,8 @@
       <c r="R58" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -4492,11 +4319,8 @@
       <c r="R59" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
@@ -4551,11 +4375,8 @@
       <c r="R60" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>115</v>
       </c>
@@ -4610,11 +4431,8 @@
       <c r="R61" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S61" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>115</v>
       </c>
@@ -4669,11 +4487,8 @@
       <c r="R62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>115</v>
       </c>
@@ -4728,11 +4543,8 @@
       <c r="R63" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="S63" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>116</v>
       </c>
@@ -4787,11 +4599,8 @@
       <c r="R64" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S64" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>117</v>
       </c>
@@ -4846,11 +4655,8 @@
       <c r="R65" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="S65" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>117</v>
       </c>
@@ -4905,11 +4711,8 @@
       <c r="R66" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>120</v>
       </c>
@@ -4964,11 +4767,8 @@
       <c r="R67" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S67" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>121</v>
       </c>
@@ -5023,11 +4823,8 @@
       <c r="R68" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S68" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>121</v>
       </c>
@@ -5082,11 +4879,8 @@
       <c r="R69" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S69" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>121</v>
       </c>
@@ -5141,11 +4935,8 @@
       <c r="R70" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S70" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>121</v>
       </c>
@@ -5200,11 +4991,8 @@
       <c r="R71" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S71" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>122</v>
       </c>
@@ -5259,11 +5047,8 @@
       <c r="R72" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>122</v>
       </c>
@@ -5318,11 +5103,8 @@
       <c r="R73" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S73" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>122</v>
       </c>
@@ -5377,11 +5159,8 @@
       <c r="R74" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S74" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>123</v>
       </c>
@@ -5436,11 +5215,8 @@
       <c r="R75" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S75" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>123</v>
       </c>
@@ -5495,11 +5271,8 @@
       <c r="R76" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>124</v>
       </c>
@@ -5554,11 +5327,8 @@
       <c r="R77" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S77" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>125</v>
       </c>
@@ -5613,11 +5383,8 @@
       <c r="R78" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S78" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>126</v>
       </c>
@@ -5672,11 +5439,8 @@
       <c r="R79" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="S79" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>126</v>
       </c>
@@ -5731,11 +5495,8 @@
       <c r="R80" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S80" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>126</v>
       </c>
@@ -5790,11 +5551,8 @@
       <c r="R81" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>126</v>
       </c>
@@ -5849,11 +5607,8 @@
       <c r="R82" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S82" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>127</v>
       </c>
@@ -5908,11 +5663,8 @@
       <c r="R83" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>127</v>
       </c>
@@ -5967,11 +5719,8 @@
       <c r="R84" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S84" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>127</v>
       </c>
@@ -6026,11 +5775,8 @@
       <c r="R85" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="S85" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>127</v>
       </c>
@@ -6085,11 +5831,8 @@
       <c r="R86" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S86" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>128</v>
       </c>
@@ -6144,11 +5887,8 @@
       <c r="R87" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="S87" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>129</v>
       </c>
@@ -6203,11 +5943,8 @@
       <c r="R88" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S88" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>130</v>
       </c>
@@ -6262,11 +5999,8 @@
       <c r="R89" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>131</v>
       </c>
@@ -6321,11 +6055,8 @@
       <c r="R90" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S90" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>131</v>
       </c>
@@ -6380,11 +6111,8 @@
       <c r="R91" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>131</v>
       </c>
@@ -6439,11 +6167,8 @@
       <c r="R92" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S92" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>132</v>
       </c>
@@ -6498,11 +6223,8 @@
       <c r="R93" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="S93" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>132</v>
       </c>
@@ -6557,11 +6279,8 @@
       <c r="R94" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>132</v>
       </c>
@@ -6616,11 +6335,8 @@
       <c r="R95" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S95" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>133</v>
       </c>
@@ -6675,11 +6391,8 @@
       <c r="R96" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="S96" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>133</v>
       </c>
@@ -6734,11 +6447,8 @@
       <c r="R97" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S97" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>133</v>
       </c>
@@ -6793,11 +6503,8 @@
       <c r="R98" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S98" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>134</v>
       </c>
@@ -6852,11 +6559,8 @@
       <c r="R99" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="S99" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>134</v>
       </c>
@@ -6911,11 +6615,8 @@
       <c r="R100" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>135</v>
       </c>
@@ -6970,11 +6671,8 @@
       <c r="R101" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>135</v>
       </c>
@@ -7029,11 +6727,8 @@
       <c r="R102" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>136</v>
       </c>
@@ -7088,11 +6783,8 @@
       <c r="R103" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="S103" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>137</v>
       </c>
@@ -7147,11 +6839,8 @@
       <c r="R104" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S104" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>137</v>
       </c>
@@ -7206,11 +6895,8 @@
       <c r="R105" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="S105" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>138</v>
       </c>
@@ -7265,11 +6951,8 @@
       <c r="R106" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="S106" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>138</v>
       </c>
@@ -7324,11 +7007,8 @@
       <c r="R107" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S107" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>138</v>
       </c>
@@ -7383,11 +7063,8 @@
       <c r="R108" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="S108" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>139</v>
       </c>
@@ -7442,11 +7119,8 @@
       <c r="R109" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S109" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>140</v>
       </c>
@@ -7501,11 +7175,8 @@
       <c r="R110" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S110" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>140</v>
       </c>
@@ -7560,11 +7231,8 @@
       <c r="R111" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S111" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>141</v>
       </c>
@@ -7619,11 +7287,8 @@
       <c r="R112" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S112" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>142</v>
       </c>
@@ -7678,11 +7343,8 @@
       <c r="R113" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="S113" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>143</v>
       </c>
@@ -7737,11 +7399,8 @@
       <c r="R114" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="S114" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>143</v>
       </c>
@@ -7796,11 +7455,8 @@
       <c r="R115" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S115" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>143</v>
       </c>
@@ -7855,11 +7511,8 @@
       <c r="R116" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="S116" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>143</v>
       </c>
@@ -7914,11 +7567,8 @@
       <c r="R117" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S117" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>144</v>
       </c>
@@ -7973,11 +7623,8 @@
       <c r="R118" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S118" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>144</v>
       </c>
@@ -8032,11 +7679,8 @@
       <c r="R119" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="S119" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>144</v>
       </c>
@@ -8091,11 +7735,8 @@
       <c r="R120" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S120" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>144</v>
       </c>
@@ -8150,11 +7791,8 @@
       <c r="R121" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S121" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>145</v>
       </c>
@@ -8209,11 +7847,8 @@
       <c r="R122" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S122" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>146</v>
       </c>
@@ -8268,11 +7903,8 @@
       <c r="R123" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S123" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>146</v>
       </c>
@@ -8327,11 +7959,8 @@
       <c r="R124" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S124" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>147</v>
       </c>
@@ -8386,11 +8015,8 @@
       <c r="R125" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S125" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>147</v>
       </c>
@@ -8445,11 +8071,8 @@
       <c r="R126" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S126" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>147</v>
       </c>
@@ -8504,11 +8127,8 @@
       <c r="R127" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="S127" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>147</v>
       </c>
@@ -8563,11 +8183,8 @@
       <c r="R128" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S128" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8622,11 +8239,8 @@
       <c r="R129" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S129" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8681,11 +8295,8 @@
       <c r="R130" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S130" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -8740,11 +8351,8 @@
       <c r="R131" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S131" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>150</v>
       </c>
@@ -8799,11 +8407,8 @@
       <c r="R132" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S132" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>150</v>
       </c>
@@ -8858,11 +8463,8 @@
       <c r="R133" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S133" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>150</v>
       </c>
@@ -8917,11 +8519,8 @@
       <c r="R134" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S134" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>151</v>
       </c>
@@ -8976,11 +8575,8 @@
       <c r="R135" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S135" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>151</v>
       </c>
@@ -9035,11 +8631,8 @@
       <c r="R136" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="S136" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>151</v>
       </c>
@@ -9094,11 +8687,8 @@
       <c r="R137" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S137" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>151</v>
       </c>
@@ -9153,11 +8743,8 @@
       <c r="R138" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S138" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>152</v>
       </c>
@@ -9212,11 +8799,8 @@
       <c r="R139" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S139" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>152</v>
       </c>
@@ -9271,11 +8855,8 @@
       <c r="R140" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="S140" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>153</v>
       </c>
@@ -9330,11 +8911,8 @@
       <c r="R141" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S141" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>154</v>
       </c>
@@ -9389,11 +8967,8 @@
       <c r="R142" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S142" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>154</v>
       </c>
@@ -9448,11 +9023,8 @@
       <c r="R143" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S143" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>155</v>
       </c>
@@ -9507,11 +9079,8 @@
       <c r="R144" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S144" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>155</v>
       </c>
@@ -9566,11 +9135,8 @@
       <c r="R145" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="S145" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>155</v>
       </c>
@@ -9625,11 +9191,8 @@
       <c r="R146" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S146" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>155</v>
       </c>
@@ -9684,11 +9247,8 @@
       <c r="R147" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S147" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>156</v>
       </c>
@@ -9743,11 +9303,8 @@
       <c r="R148" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S148" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>157</v>
       </c>
@@ -9802,11 +9359,8 @@
       <c r="R149" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S149" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>158</v>
       </c>
@@ -9861,11 +9415,8 @@
       <c r="R150" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S150" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>158</v>
       </c>
@@ -9920,11 +9471,8 @@
       <c r="R151" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S151" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>158</v>
       </c>
@@ -9979,11 +9527,8 @@
       <c r="R152" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="S152" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>159</v>
       </c>
@@ -10038,11 +9583,8 @@
       <c r="R153" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S153" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>159</v>
       </c>
@@ -10097,11 +9639,8 @@
       <c r="R154" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="S154" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>159</v>
       </c>
@@ -10156,11 +9695,8 @@
       <c r="R155" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="S155" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>159</v>
       </c>
@@ -10215,11 +9751,8 @@
       <c r="R156" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S156" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>160</v>
       </c>
@@ -10274,11 +9807,8 @@
       <c r="R157" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S157" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>161</v>
       </c>
@@ -10333,11 +9863,8 @@
       <c r="R158" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S158" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>161</v>
       </c>
@@ -10392,11 +9919,8 @@
       <c r="R159" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S159" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>162</v>
       </c>
@@ -10451,11 +9975,8 @@
       <c r="R160" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S160" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>162</v>
       </c>
@@ -10510,11 +10031,8 @@
       <c r="R161" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S161" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>163</v>
       </c>
@@ -10569,11 +10087,8 @@
       <c r="R162" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S162" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>163</v>
       </c>
@@ -10628,11 +10143,8 @@
       <c r="R163" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S163" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -10687,11 +10199,8 @@
       <c r="R164" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S164" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -10746,11 +10255,8 @@
       <c r="R165" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="S165" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>164</v>
       </c>
@@ -10805,11 +10311,8 @@
       <c r="R166" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S166" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>164</v>
       </c>
@@ -10864,11 +10367,8 @@
       <c r="R167" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S167" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>164</v>
       </c>
@@ -10923,11 +10423,8 @@
       <c r="R168" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S168" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>165</v>
       </c>
@@ -10982,11 +10479,8 @@
       <c r="R169" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S169" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>166</v>
       </c>
@@ -11041,11 +10535,8 @@
       <c r="R170" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="S170" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>167</v>
       </c>
@@ -11100,11 +10591,8 @@
       <c r="R171" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S171" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>167</v>
       </c>
@@ -11159,11 +10647,8 @@
       <c r="R172" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="S172" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>168</v>
       </c>
@@ -11218,11 +10703,8 @@
       <c r="R173" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S173" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>168</v>
       </c>
@@ -11277,11 +10759,8 @@
       <c r="R174" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S174" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>168</v>
       </c>
@@ -11336,11 +10815,8 @@
       <c r="R175" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S175" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>169</v>
       </c>
@@ -11395,11 +10871,8 @@
       <c r="R176" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S176" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>169</v>
       </c>
@@ -11454,11 +10927,8 @@
       <c r="R177" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="S177" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>169</v>
       </c>
@@ -11513,11 +10983,8 @@
       <c r="R178" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S178" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>170</v>
       </c>
@@ -11572,11 +11039,8 @@
       <c r="R179" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="S179" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>171</v>
       </c>
@@ -11631,11 +11095,8 @@
       <c r="R180" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S180" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>172</v>
       </c>
@@ -11690,11 +11151,8 @@
       <c r="R181" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S181" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>172</v>
       </c>
@@ -11749,11 +11207,8 @@
       <c r="R182" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S182" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>173</v>
       </c>
@@ -11808,11 +11263,8 @@
       <c r="R183" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S183" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>173</v>
       </c>
@@ -11867,11 +11319,8 @@
       <c r="R184" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S184" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>173</v>
       </c>
@@ -11926,11 +11375,8 @@
       <c r="R185" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S185" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>174</v>
       </c>
@@ -11985,11 +11431,8 @@
       <c r="R186" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S186" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>174</v>
       </c>
@@ -12044,11 +11487,8 @@
       <c r="R187" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="S187" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>174</v>
       </c>
@@ -12103,11 +11543,8 @@
       <c r="R188" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S188" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>175</v>
       </c>
@@ -12162,11 +11599,8 @@
       <c r="R189" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S189" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>175</v>
       </c>
@@ -12221,11 +11655,8 @@
       <c r="R190" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S190" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>176</v>
       </c>
@@ -12280,11 +11711,8 @@
       <c r="R191" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="S191" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>177</v>
       </c>
@@ -12339,11 +11767,8 @@
       <c r="R192" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S192" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>178</v>
       </c>
@@ -12398,11 +11823,8 @@
       <c r="R193" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S193" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>178</v>
       </c>
@@ -12457,11 +11879,8 @@
       <c r="R194" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S194" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>179</v>
       </c>
@@ -12516,11 +11935,8 @@
       <c r="R195" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S195" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>179</v>
       </c>
@@ -12575,11 +11991,8 @@
       <c r="R196" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S196" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>179</v>
       </c>
@@ -12634,11 +12047,8 @@
       <c r="R197" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S197" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>179</v>
       </c>
@@ -12693,11 +12103,8 @@
       <c r="R198" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="S198" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>179</v>
       </c>
@@ -12752,11 +12159,8 @@
       <c r="R199" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S199" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>179</v>
       </c>
@@ -12811,11 +12215,8 @@
       <c r="R200" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="S200" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>179</v>
       </c>
@@ -12870,11 +12271,8 @@
       <c r="R201" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S201" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>180</v>
       </c>
@@ -12929,11 +12327,8 @@
       <c r="R202" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S202" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>181</v>
       </c>
@@ -12988,11 +12383,8 @@
       <c r="R203" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S203" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>181</v>
       </c>
@@ -13047,11 +12439,8 @@
       <c r="R204" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S204" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>182</v>
       </c>
@@ -13106,11 +12495,8 @@
       <c r="R205" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S205" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>183</v>
       </c>
@@ -13165,11 +12551,8 @@
       <c r="R206" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S206" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>184</v>
       </c>
@@ -13224,11 +12607,8 @@
       <c r="R207" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S207" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>184</v>
       </c>
@@ -13283,11 +12663,8 @@
       <c r="R208" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="S208" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>185</v>
       </c>
@@ -13342,11 +12719,8 @@
       <c r="R209" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S209" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>186</v>
       </c>
@@ -13401,11 +12775,8 @@
       <c r="R210" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S210" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>187</v>
       </c>
@@ -13460,11 +12831,8 @@
       <c r="R211" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="S211" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>187</v>
       </c>
@@ -13519,11 +12887,8 @@
       <c r="R212" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S212" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>188</v>
       </c>
@@ -13578,11 +12943,8 @@
       <c r="R213" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S213" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>189</v>
       </c>
@@ -13637,11 +12999,8 @@
       <c r="R214" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S214" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>190</v>
       </c>
@@ -13696,11 +13055,8 @@
       <c r="R215" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="S215" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>190</v>
       </c>
@@ -13755,11 +13111,8 @@
       <c r="R216" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S216" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>191</v>
       </c>
@@ -13814,11 +13167,8 @@
       <c r="R217" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S217" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>192</v>
       </c>
@@ -13873,11 +13223,8 @@
       <c r="R218" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S218" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>193</v>
       </c>
@@ -13932,11 +13279,8 @@
       <c r="R219" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="S219" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>193</v>
       </c>
@@ -13991,11 +13335,8 @@
       <c r="R220" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="S220" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>194</v>
       </c>
@@ -14050,11 +13391,8 @@
       <c r="R221" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S221" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>195</v>
       </c>
@@ -14109,11 +13447,8 @@
       <c r="R222" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S222" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>195</v>
       </c>
@@ -14168,11 +13503,8 @@
       <c r="R223" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S223" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>196</v>
       </c>
@@ -14227,11 +13559,8 @@
       <c r="R224" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="S224" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>196</v>
       </c>
@@ -14286,11 +13615,8 @@
       <c r="R225" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S225" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>197</v>
       </c>
@@ -14345,11 +13671,8 @@
       <c r="R226" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S226" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>198</v>
       </c>
@@ -14403,9 +13726,6 @@
       </c>
       <c r="R227" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="S227" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Ligas/Liga_colombia_2025.xlsx
+++ b/Ligas/Liga_colombia_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S227"/>
+  <dimension ref="A1:S236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15672,6 +15672,609 @@
         </is>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>America de Cali</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1392345</v>
+      </c>
+      <c r="G228" t="n">
+        <v>6</v>
+      </c>
+      <c r="H228" t="n">
+        <v>7</v>
+      </c>
+      <c r="I228" t="n">
+        <v>3</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>41</v>
+      </c>
+      <c r="R228" t="n">
+        <v>59</v>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Atletico Nacional</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>3</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1392346</v>
+      </c>
+      <c r="G229" t="n">
+        <v>2</v>
+      </c>
+      <c r="H229" t="n">
+        <v>7</v>
+      </c>
+      <c r="I229" t="n">
+        <v>5</v>
+      </c>
+      <c r="J229" t="n">
+        <v>2</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1</v>
+      </c>
+      <c r="P229" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>39</v>
+      </c>
+      <c r="R229" t="n">
+        <v>61</v>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>3</v>
+      </c>
+      <c r="E230" t="n">
+        <v>2</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1392347</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>3</v>
+      </c>
+      <c r="I230" t="n">
+        <v>5</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="n">
+        <v>3</v>
+      </c>
+      <c r="P230" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>23</v>
+      </c>
+      <c r="R230" t="n">
+        <v>77</v>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1392348</v>
+      </c>
+      <c r="G231" t="n">
+        <v>5</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>3</v>
+      </c>
+      <c r="J231" t="n">
+        <v>2</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>46</v>
+      </c>
+      <c r="R231" t="n">
+        <v>54</v>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Bucaramanga</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>1</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1392349</v>
+      </c>
+      <c r="G232" t="n">
+        <v>6</v>
+      </c>
+      <c r="H232" t="n">
+        <v>4</v>
+      </c>
+      <c r="I232" t="n">
+        <v>2</v>
+      </c>
+      <c r="J232" t="n">
+        <v>2</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1</v>
+      </c>
+      <c r="P232" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>68</v>
+      </c>
+      <c r="R232" t="n">
+        <v>32</v>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1392350</v>
+      </c>
+      <c r="G233" t="n">
+        <v>6</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>3</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>27</v>
+      </c>
+      <c r="R233" t="n">
+        <v>73</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Independiente Medellin</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1392351</v>
+      </c>
+      <c r="G234" t="n">
+        <v>15</v>
+      </c>
+      <c r="H234" t="n">
+        <v>3</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>2</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1</v>
+      </c>
+      <c r="P234" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>67</v>
+      </c>
+      <c r="R234" t="n">
+        <v>33</v>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>2</v>
+      </c>
+      <c r="E235" t="n">
+        <v>2</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1392352</v>
+      </c>
+      <c r="G235" t="n">
+        <v>7</v>
+      </c>
+      <c r="H235" t="n">
+        <v>3</v>
+      </c>
+      <c r="I235" t="n">
+        <v>3</v>
+      </c>
+      <c r="J235" t="n">
+        <v>2</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" t="n">
+        <v>2</v>
+      </c>
+      <c r="P235" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>69</v>
+      </c>
+      <c r="R235" t="n">
+        <v>31</v>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Rionegro Aguilas</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1392353</v>
+      </c>
+      <c r="G236" t="n">
+        <v>2</v>
+      </c>
+      <c r="H236" t="n">
+        <v>7</v>
+      </c>
+      <c r="I236" t="n">
+        <v>2</v>
+      </c>
+      <c r="J236" t="n">
+        <v>2</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>46</v>
+      </c>
+      <c r="R236" t="n">
+        <v>54</v>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ligas/Liga_colombia_2025.xlsx
+++ b/Ligas/Liga_colombia_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S236"/>
+  <dimension ref="A1:S250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16275,6 +16275,1000 @@
         </is>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1392355</v>
+      </c>
+      <c r="G237" t="n">
+        <v>3</v>
+      </c>
+      <c r="H237" t="n">
+        <v>4</v>
+      </c>
+      <c r="I237" t="n">
+        <v>4</v>
+      </c>
+      <c r="J237" t="n">
+        <v>6</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1392356</v>
+      </c>
+      <c r="G238" t="n">
+        <v>7</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>2</v>
+      </c>
+      <c r="J238" t="n">
+        <v>4</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Rionegro Aguilas</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>2</v>
+      </c>
+      <c r="E239" t="n">
+        <v>3</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1392357</v>
+      </c>
+      <c r="G239" t="n">
+        <v>4</v>
+      </c>
+      <c r="H239" t="n">
+        <v>8</v>
+      </c>
+      <c r="I239" t="n">
+        <v>2</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0</v>
+      </c>
+      <c r="O239" t="n">
+        <v>2</v>
+      </c>
+      <c r="P239" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>1</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1392358</v>
+      </c>
+      <c r="G240" t="n">
+        <v>5</v>
+      </c>
+      <c r="H240" t="n">
+        <v>7</v>
+      </c>
+      <c r="I240" t="n">
+        <v>2</v>
+      </c>
+      <c r="J240" t="n">
+        <v>3</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Atletico Nacional</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>3</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1392359</v>
+      </c>
+      <c r="G241" t="n">
+        <v>3</v>
+      </c>
+      <c r="H241" t="n">
+        <v>3</v>
+      </c>
+      <c r="I241" t="n">
+        <v>2</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0</v>
+      </c>
+      <c r="O241" t="n">
+        <v>3</v>
+      </c>
+      <c r="P241" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Independiente Medellin</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>2</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1392360</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>8</v>
+      </c>
+      <c r="I242" t="n">
+        <v>4</v>
+      </c>
+      <c r="J242" t="n">
+        <v>5</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0</v>
+      </c>
+      <c r="O242" t="n">
+        <v>2</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1392361</v>
+      </c>
+      <c r="G243" t="n">
+        <v>2</v>
+      </c>
+      <c r="H243" t="n">
+        <v>9</v>
+      </c>
+      <c r="I243" t="n">
+        <v>3</v>
+      </c>
+      <c r="J243" t="n">
+        <v>3</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>2</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1392362</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
+      <c r="H244" t="n">
+        <v>6</v>
+      </c>
+      <c r="I244" t="n">
+        <v>2</v>
+      </c>
+      <c r="J244" t="n">
+        <v>5</v>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0</v>
+      </c>
+      <c r="O244" t="n">
+        <v>2</v>
+      </c>
+      <c r="P244" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1392366</v>
+      </c>
+      <c r="G245" t="n">
+        <v>7</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>2</v>
+      </c>
+      <c r="J245" t="n">
+        <v>4</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Rionegro Aguilas</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1392367</v>
+      </c>
+      <c r="G246" t="n">
+        <v>6</v>
+      </c>
+      <c r="H246" t="n">
+        <v>5</v>
+      </c>
+      <c r="I246" t="n">
+        <v>3</v>
+      </c>
+      <c r="J246" t="n">
+        <v>4</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Atletico Nacional</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1392368</v>
+      </c>
+      <c r="G247" t="n">
+        <v>5</v>
+      </c>
+      <c r="H247" t="n">
+        <v>4</v>
+      </c>
+      <c r="I247" t="n">
+        <v>5</v>
+      </c>
+      <c r="J247" t="n">
+        <v>3</v>
+      </c>
+      <c r="K247" t="n">
+        <v>2</v>
+      </c>
+      <c r="L247" t="n">
+        <v>2</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" t="n">
+        <v>2</v>
+      </c>
+      <c r="P247" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>2</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1392369</v>
+      </c>
+      <c r="G248" t="n">
+        <v>2</v>
+      </c>
+      <c r="H248" t="n">
+        <v>4</v>
+      </c>
+      <c r="I248" t="n">
+        <v>3</v>
+      </c>
+      <c r="J248" t="n">
+        <v>3</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0</v>
+      </c>
+      <c r="O248" t="n">
+        <v>2</v>
+      </c>
+      <c r="P248" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>4</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1392370</v>
+      </c>
+      <c r="G249" t="n">
+        <v>5</v>
+      </c>
+      <c r="H249" t="n">
+        <v>6</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>2</v>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" t="n">
+        <v>4</v>
+      </c>
+      <c r="P249" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>1</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1392371</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="n">
+        <v>6</v>
+      </c>
+      <c r="I250" t="n">
+        <v>4</v>
+      </c>
+      <c r="J250" t="n">
+        <v>3</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ligas/Liga_colombia_2025.xlsx
+++ b/Ligas/Liga_colombia_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U271"/>
+  <dimension ref="A1:Y284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,26 @@
           <t>Posesión Visita ().1</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Local (%)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Visita (%)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>fuente_tiempos</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>estado_datos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -608,6 +628,10 @@
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -677,6 +701,10 @@
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -746,6 +774,10 @@
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -815,6 +847,10 @@
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -884,6 +920,10 @@
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -953,6 +993,10 @@
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1022,6 +1066,10 @@
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1091,6 +1139,10 @@
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1160,6 +1212,10 @@
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1229,6 +1285,10 @@
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1298,6 +1358,10 @@
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1367,6 +1431,10 @@
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1436,6 +1504,10 @@
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1505,6 +1577,10 @@
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1574,6 +1650,10 @@
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1643,6 +1723,10 @@
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1712,6 +1796,10 @@
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1781,6 +1869,10 @@
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1850,6 +1942,10 @@
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1919,6 +2015,10 @@
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1988,6 +2088,10 @@
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2057,6 +2161,10 @@
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2126,6 +2234,10 @@
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2195,6 +2307,10 @@
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2264,6 +2380,10 @@
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2333,6 +2453,10 @@
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2402,6 +2526,10 @@
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2471,6 +2599,10 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2540,6 +2672,10 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2609,6 +2745,10 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2678,6 +2818,10 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2747,6 +2891,10 @@
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2816,6 +2964,10 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2885,6 +3037,10 @@
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2954,6 +3110,10 @@
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3023,6 +3183,10 @@
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3092,6 +3256,10 @@
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3161,6 +3329,10 @@
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3230,6 +3402,10 @@
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3299,6 +3475,10 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3368,6 +3548,10 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3437,6 +3621,10 @@
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3506,6 +3694,10 @@
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3575,6 +3767,10 @@
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3644,6 +3840,10 @@
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3713,6 +3913,10 @@
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3782,6 +3986,10 @@
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3851,6 +4059,10 @@
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3920,6 +4132,10 @@
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3989,6 +4205,10 @@
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4058,6 +4278,10 @@
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4127,6 +4351,10 @@
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4196,6 +4424,10 @@
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4265,6 +4497,10 @@
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4334,6 +4570,10 @@
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4403,6 +4643,10 @@
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4472,6 +4716,10 @@
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4541,6 +4789,10 @@
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4610,6 +4862,10 @@
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4679,6 +4935,10 @@
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4748,6 +5008,10 @@
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4817,6 +5081,10 @@
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4886,6 +5154,10 @@
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4955,6 +5227,10 @@
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5024,6 +5300,10 @@
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5093,6 +5373,10 @@
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5162,6 +5446,10 @@
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5231,6 +5519,10 @@
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5300,6 +5592,10 @@
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5369,6 +5665,10 @@
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5438,6 +5738,10 @@
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5507,6 +5811,10 @@
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5576,6 +5884,10 @@
       </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5645,6 +5957,10 @@
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5714,6 +6030,10 @@
       </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5783,6 +6103,10 @@
       </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5852,6 +6176,10 @@
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5921,6 +6249,10 @@
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5990,6 +6322,10 @@
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6059,6 +6395,10 @@
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6128,6 +6468,10 @@
       </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6197,6 +6541,10 @@
       </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6266,6 +6614,10 @@
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6335,6 +6687,10 @@
       </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6404,6 +6760,10 @@
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6473,6 +6833,10 @@
       </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6542,6 +6906,10 @@
       </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6611,6 +6979,10 @@
       </c>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6680,6 +7052,10 @@
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6749,6 +7125,10 @@
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6818,6 +7198,10 @@
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6887,6 +7271,10 @@
       </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6956,6 +7344,10 @@
       </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7025,6 +7417,10 @@
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7094,6 +7490,10 @@
       </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7163,6 +7563,10 @@
       </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7232,6 +7636,10 @@
       </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7301,6 +7709,10 @@
       </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7370,6 +7782,10 @@
       </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7439,6 +7855,10 @@
       </c>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7508,6 +7928,10 @@
       </c>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7577,6 +8001,10 @@
       </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7646,6 +8074,10 @@
       </c>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7715,6 +8147,10 @@
       </c>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7784,6 +8220,10 @@
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7853,6 +8293,10 @@
       </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7922,6 +8366,10 @@
       </c>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7991,6 +8439,10 @@
       </c>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8060,6 +8512,10 @@
       </c>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8129,6 +8585,10 @@
       </c>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8198,6 +8658,10 @@
       </c>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8267,6 +8731,10 @@
       </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8336,6 +8804,10 @@
       </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8405,6 +8877,10 @@
       </c>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8474,6 +8950,10 @@
       </c>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8543,6 +9023,10 @@
       </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8612,6 +9096,10 @@
       </c>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8681,6 +9169,10 @@
       </c>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8750,6 +9242,10 @@
       </c>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8819,6 +9315,10 @@
       </c>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8888,6 +9388,10 @@
       </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8957,6 +9461,10 @@
       </c>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9026,6 +9534,10 @@
       </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9095,6 +9607,10 @@
       </c>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9164,6 +9680,10 @@
       </c>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9233,6 +9753,10 @@
       </c>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9302,6 +9826,10 @@
       </c>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9371,6 +9899,10 @@
       </c>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9440,6 +9972,10 @@
       </c>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9509,6 +10045,10 @@
       </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9578,6 +10118,10 @@
       </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9647,6 +10191,10 @@
       </c>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9716,6 +10264,10 @@
       </c>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9785,6 +10337,10 @@
       </c>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9854,6 +10410,10 @@
       </c>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9923,6 +10483,10 @@
       </c>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9992,6 +10556,10 @@
       </c>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10061,6 +10629,10 @@
       </c>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10130,6 +10702,10 @@
       </c>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10199,6 +10775,10 @@
       </c>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10268,6 +10848,10 @@
       </c>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10337,6 +10921,10 @@
       </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10406,6 +10994,10 @@
       </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10475,6 +11067,10 @@
       </c>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10544,6 +11140,10 @@
       </c>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10613,6 +11213,10 @@
       </c>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10682,6 +11286,10 @@
       </c>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10751,6 +11359,10 @@
       </c>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10820,6 +11432,10 @@
       </c>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10889,6 +11505,10 @@
       </c>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10958,6 +11578,10 @@
       </c>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11027,6 +11651,10 @@
       </c>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11096,6 +11724,10 @@
       </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11165,6 +11797,10 @@
       </c>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11234,6 +11870,10 @@
       </c>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11303,6 +11943,10 @@
       </c>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11372,6 +12016,10 @@
       </c>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11441,6 +12089,10 @@
       </c>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11510,6 +12162,10 @@
       </c>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11579,6 +12235,10 @@
       </c>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11648,6 +12308,10 @@
       </c>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11717,6 +12381,10 @@
       </c>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11786,6 +12454,10 @@
       </c>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11855,6 +12527,10 @@
       </c>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11924,6 +12600,10 @@
       </c>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11993,6 +12673,10 @@
       </c>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -12062,6 +12746,10 @@
       </c>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -12131,6 +12819,10 @@
       </c>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -12200,6 +12892,10 @@
       </c>
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -12269,6 +12965,10 @@
       </c>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12338,6 +13038,10 @@
       </c>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -12407,6 +13111,10 @@
       </c>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12476,6 +13184,10 @@
       </c>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -12545,6 +13257,10 @@
       </c>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -12614,6 +13330,10 @@
       </c>
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -12683,6 +13403,10 @@
       </c>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12752,6 +13476,10 @@
       </c>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12821,6 +13549,10 @@
       </c>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12890,6 +13622,10 @@
       </c>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12959,6 +13695,10 @@
       </c>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -13028,6 +13768,10 @@
       </c>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -13097,6 +13841,10 @@
       </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -13166,6 +13914,10 @@
       </c>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -13235,6 +13987,10 @@
       </c>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -13304,6 +14060,10 @@
       </c>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -13373,6 +14133,10 @@
       </c>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13442,6 +14206,10 @@
       </c>
       <c r="T188" t="inlineStr"/>
       <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -13511,6 +14279,10 @@
       </c>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -13580,6 +14352,10 @@
       </c>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -13649,6 +14425,10 @@
       </c>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -13718,6 +14498,10 @@
       </c>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -13787,6 +14571,10 @@
       </c>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13856,6 +14644,10 @@
       </c>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -13925,6 +14717,10 @@
       </c>
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13994,6 +14790,10 @@
       </c>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -14063,6 +14863,10 @@
       </c>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -14132,6 +14936,10 @@
       </c>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -14201,6 +15009,10 @@
       </c>
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -14270,6 +15082,10 @@
       </c>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -14339,6 +15155,10 @@
       </c>
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -14408,6 +15228,10 @@
       </c>
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
+      <c r="Y202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -14477,6 +15301,10 @@
       </c>
       <c r="T203" t="inlineStr"/>
       <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
+      <c r="Y203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -14546,6 +15374,10 @@
       </c>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
+      <c r="Y204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -14615,6 +15447,10 @@
       </c>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -14684,6 +15520,10 @@
       </c>
       <c r="T206" t="inlineStr"/>
       <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -14753,6 +15593,10 @@
       </c>
       <c r="T207" t="inlineStr"/>
       <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
+      <c r="Y207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -14822,6 +15666,10 @@
       </c>
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
+      <c r="Y208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -14891,6 +15739,10 @@
       </c>
       <c r="T209" t="inlineStr"/>
       <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -14960,6 +15812,10 @@
       </c>
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
+      <c r="Y210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -15029,6 +15885,10 @@
       </c>
       <c r="T211" t="inlineStr"/>
       <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
+      <c r="Y211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -15098,6 +15958,10 @@
       </c>
       <c r="T212" t="inlineStr"/>
       <c r="U212" t="inlineStr"/>
+      <c r="V212" t="inlineStr"/>
+      <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr"/>
+      <c r="Y212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -15167,6 +16031,10 @@
       </c>
       <c r="T213" t="inlineStr"/>
       <c r="U213" t="inlineStr"/>
+      <c r="V213" t="inlineStr"/>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr"/>
+      <c r="Y213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -15236,6 +16104,10 @@
       </c>
       <c r="T214" t="inlineStr"/>
       <c r="U214" t="inlineStr"/>
+      <c r="V214" t="inlineStr"/>
+      <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr"/>
+      <c r="Y214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -15305,6 +16177,10 @@
       </c>
       <c r="T215" t="inlineStr"/>
       <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
+      <c r="Y215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -15374,6 +16250,10 @@
       </c>
       <c r="T216" t="inlineStr"/>
       <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr"/>
+      <c r="Y216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -15443,6 +16323,10 @@
       </c>
       <c r="T217" t="inlineStr"/>
       <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr"/>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr"/>
+      <c r="Y217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -15512,6 +16396,10 @@
       </c>
       <c r="T218" t="inlineStr"/>
       <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
+      <c r="Y218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -15581,6 +16469,10 @@
       </c>
       <c r="T219" t="inlineStr"/>
       <c r="U219" t="inlineStr"/>
+      <c r="V219" t="inlineStr"/>
+      <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr"/>
+      <c r="Y219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -15650,6 +16542,10 @@
       </c>
       <c r="T220" t="inlineStr"/>
       <c r="U220" t="inlineStr"/>
+      <c r="V220" t="inlineStr"/>
+      <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr"/>
+      <c r="Y220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -15719,6 +16615,10 @@
       </c>
       <c r="T221" t="inlineStr"/>
       <c r="U221" t="inlineStr"/>
+      <c r="V221" t="inlineStr"/>
+      <c r="W221" t="inlineStr"/>
+      <c r="X221" t="inlineStr"/>
+      <c r="Y221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -15788,6 +16688,10 @@
       </c>
       <c r="T222" t="inlineStr"/>
       <c r="U222" t="inlineStr"/>
+      <c r="V222" t="inlineStr"/>
+      <c r="W222" t="inlineStr"/>
+      <c r="X222" t="inlineStr"/>
+      <c r="Y222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -15857,6 +16761,10 @@
       </c>
       <c r="T223" t="inlineStr"/>
       <c r="U223" t="inlineStr"/>
+      <c r="V223" t="inlineStr"/>
+      <c r="W223" t="inlineStr"/>
+      <c r="X223" t="inlineStr"/>
+      <c r="Y223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -15926,6 +16834,10 @@
       </c>
       <c r="T224" t="inlineStr"/>
       <c r="U224" t="inlineStr"/>
+      <c r="V224" t="inlineStr"/>
+      <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr"/>
+      <c r="Y224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -15995,6 +16907,10 @@
       </c>
       <c r="T225" t="inlineStr"/>
       <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr"/>
+      <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr"/>
+      <c r="Y225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -16064,6 +16980,10 @@
       </c>
       <c r="T226" t="inlineStr"/>
       <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr"/>
+      <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
+      <c r="Y226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -16133,6 +17053,10 @@
       </c>
       <c r="T227" t="inlineStr"/>
       <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr"/>
+      <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
+      <c r="Y227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -16202,6 +17126,10 @@
       </c>
       <c r="T228" t="inlineStr"/>
       <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
+      <c r="Y228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -16250,13 +17178,13 @@
         <v>0</v>
       </c>
       <c r="N229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O229" t="n">
         <v>1</v>
       </c>
       <c r="P229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q229" t="n">
         <v>39</v>
@@ -16271,6 +17199,10 @@
       </c>
       <c r="T229" t="inlineStr"/>
       <c r="U229" t="inlineStr"/>
+      <c r="V229" t="inlineStr"/>
+      <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr"/>
+      <c r="Y229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -16316,13 +17248,13 @@
         <v>0</v>
       </c>
       <c r="M230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N230" t="n">
         <v>0</v>
       </c>
       <c r="O230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P230" t="n">
         <v>2</v>
@@ -16340,6 +17272,10 @@
       </c>
       <c r="T230" t="inlineStr"/>
       <c r="U230" t="inlineStr"/>
+      <c r="V230" t="inlineStr"/>
+      <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr"/>
+      <c r="Y230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -16409,6 +17345,10 @@
       </c>
       <c r="T231" t="inlineStr"/>
       <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
+      <c r="Y231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -16454,16 +17394,16 @@
         <v>0</v>
       </c>
       <c r="M232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q232" t="n">
         <v>68</v>
@@ -16478,6 +17418,10 @@
       </c>
       <c r="T232" t="inlineStr"/>
       <c r="U232" t="inlineStr"/>
+      <c r="V232" t="inlineStr"/>
+      <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr"/>
+      <c r="Y232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -16526,13 +17470,13 @@
         <v>0</v>
       </c>
       <c r="N233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O233" t="n">
         <v>0</v>
       </c>
       <c r="P233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q233" t="n">
         <v>27</v>
@@ -16547,6 +17491,10 @@
       </c>
       <c r="T233" t="inlineStr"/>
       <c r="U233" t="inlineStr"/>
+      <c r="V233" t="inlineStr"/>
+      <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
+      <c r="Y233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -16595,13 +17543,13 @@
         <v>0</v>
       </c>
       <c r="N234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O234" t="n">
         <v>1</v>
       </c>
       <c r="P234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q234" t="n">
         <v>67</v>
@@ -16616,6 +17564,10 @@
       </c>
       <c r="T234" t="inlineStr"/>
       <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
+      <c r="Y234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -16664,13 +17616,13 @@
         <v>0</v>
       </c>
       <c r="N235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O235" t="n">
         <v>2</v>
       </c>
       <c r="P235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q235" t="n">
         <v>69</v>
@@ -16685,6 +17637,10 @@
       </c>
       <c r="T235" t="inlineStr"/>
       <c r="U235" t="inlineStr"/>
+      <c r="V235" t="inlineStr"/>
+      <c r="W235" t="inlineStr"/>
+      <c r="X235" t="inlineStr"/>
+      <c r="Y235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -16754,6 +17710,10 @@
       </c>
       <c r="T236" t="inlineStr"/>
       <c r="U236" t="inlineStr"/>
+      <c r="V236" t="inlineStr"/>
+      <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr"/>
+      <c r="Y236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -16823,6 +17783,10 @@
       </c>
       <c r="T237" t="inlineStr"/>
       <c r="U237" t="inlineStr"/>
+      <c r="V237" t="inlineStr"/>
+      <c r="W237" t="inlineStr"/>
+      <c r="X237" t="inlineStr"/>
+      <c r="Y237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -16892,6 +17856,10 @@
       </c>
       <c r="T238" t="inlineStr"/>
       <c r="U238" t="inlineStr"/>
+      <c r="V238" t="inlineStr"/>
+      <c r="W238" t="inlineStr"/>
+      <c r="X238" t="inlineStr"/>
+      <c r="Y238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -16937,13 +17905,13 @@
         <v>1</v>
       </c>
       <c r="M239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N239" t="n">
         <v>0</v>
       </c>
       <c r="O239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P239" t="n">
         <v>3</v>
@@ -16961,6 +17929,10 @@
       </c>
       <c r="T239" t="inlineStr"/>
       <c r="U239" t="inlineStr"/>
+      <c r="V239" t="inlineStr"/>
+      <c r="W239" t="inlineStr"/>
+      <c r="X239" t="inlineStr"/>
+      <c r="Y239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -17006,13 +17978,13 @@
         <v>0</v>
       </c>
       <c r="M240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N240" t="n">
         <v>0</v>
       </c>
       <c r="O240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P240" t="n">
         <v>0</v>
@@ -17030,6 +18002,10 @@
       </c>
       <c r="T240" t="inlineStr"/>
       <c r="U240" t="inlineStr"/>
+      <c r="V240" t="inlineStr"/>
+      <c r="W240" t="inlineStr"/>
+      <c r="X240" t="inlineStr"/>
+      <c r="Y240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -17075,13 +18051,13 @@
         <v>0</v>
       </c>
       <c r="M241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N241" t="n">
         <v>0</v>
       </c>
       <c r="O241" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P241" t="n">
         <v>1</v>
@@ -17099,6 +18075,10 @@
       </c>
       <c r="T241" t="inlineStr"/>
       <c r="U241" t="inlineStr"/>
+      <c r="V241" t="inlineStr"/>
+      <c r="W241" t="inlineStr"/>
+      <c r="X241" t="inlineStr"/>
+      <c r="Y241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -17168,6 +18148,10 @@
       </c>
       <c r="T242" t="inlineStr"/>
       <c r="U242" t="inlineStr"/>
+      <c r="V242" t="inlineStr"/>
+      <c r="W242" t="inlineStr"/>
+      <c r="X242" t="inlineStr"/>
+      <c r="Y242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -17237,6 +18221,10 @@
       </c>
       <c r="T243" t="inlineStr"/>
       <c r="U243" t="inlineStr"/>
+      <c r="V243" t="inlineStr"/>
+      <c r="W243" t="inlineStr"/>
+      <c r="X243" t="inlineStr"/>
+      <c r="Y243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -17282,16 +18270,16 @@
         <v>0</v>
       </c>
       <c r="M244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q244" t="n">
         <v>32</v>
@@ -17306,6 +18294,10 @@
       </c>
       <c r="T244" t="inlineStr"/>
       <c r="U244" t="inlineStr"/>
+      <c r="V244" t="inlineStr"/>
+      <c r="W244" t="inlineStr"/>
+      <c r="X244" t="inlineStr"/>
+      <c r="Y244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -17354,13 +18346,13 @@
         <v>0</v>
       </c>
       <c r="N245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O245" t="n">
         <v>0</v>
       </c>
       <c r="P245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q245" t="n">
         <v>60</v>
@@ -17375,6 +18367,10 @@
       </c>
       <c r="T245" t="inlineStr"/>
       <c r="U245" t="inlineStr"/>
+      <c r="V245" t="inlineStr"/>
+      <c r="W245" t="inlineStr"/>
+      <c r="X245" t="inlineStr"/>
+      <c r="Y245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -17444,6 +18440,10 @@
       </c>
       <c r="T246" t="inlineStr"/>
       <c r="U246" t="inlineStr"/>
+      <c r="V246" t="inlineStr"/>
+      <c r="W246" t="inlineStr"/>
+      <c r="X246" t="inlineStr"/>
+      <c r="Y246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -17489,16 +18489,16 @@
         <v>2</v>
       </c>
       <c r="M247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q247" t="n">
         <v>41</v>
@@ -17513,6 +18513,10 @@
       </c>
       <c r="T247" t="inlineStr"/>
       <c r="U247" t="inlineStr"/>
+      <c r="V247" t="inlineStr"/>
+      <c r="W247" t="inlineStr"/>
+      <c r="X247" t="inlineStr"/>
+      <c r="Y247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -17558,13 +18562,13 @@
         <v>0</v>
       </c>
       <c r="M248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N248" t="n">
         <v>0</v>
       </c>
       <c r="O248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P248" t="n">
         <v>1</v>
@@ -17582,6 +18586,10 @@
       </c>
       <c r="T248" t="inlineStr"/>
       <c r="U248" t="inlineStr"/>
+      <c r="V248" t="inlineStr"/>
+      <c r="W248" t="inlineStr"/>
+      <c r="X248" t="inlineStr"/>
+      <c r="Y248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -17627,16 +18635,16 @@
         <v>0</v>
       </c>
       <c r="M249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O249" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q249" t="n">
         <v>53</v>
@@ -17651,6 +18659,10 @@
       </c>
       <c r="T249" t="inlineStr"/>
       <c r="U249" t="inlineStr"/>
+      <c r="V249" t="inlineStr"/>
+      <c r="W249" t="inlineStr"/>
+      <c r="X249" t="inlineStr"/>
+      <c r="Y249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -17720,75 +18732,83 @@
       </c>
       <c r="T250" t="inlineStr"/>
       <c r="U250" t="inlineStr"/>
+      <c r="V250" t="inlineStr"/>
+      <c r="W250" t="inlineStr"/>
+      <c r="X250" t="inlineStr"/>
+      <c r="Y250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Independiente Medellin</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E251" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F251" t="n">
-        <v>1392373</v>
+        <v>1392372</v>
       </c>
       <c r="G251" t="n">
+        <v>12</v>
+      </c>
+      <c r="H251" t="n">
+        <v>3</v>
+      </c>
+      <c r="I251" t="n">
         <v>4</v>
       </c>
-      <c r="H251" t="n">
-        <v>3</v>
-      </c>
-      <c r="I251" t="n">
-        <v>2</v>
-      </c>
       <c r="J251" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q251" t="n">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="R251" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="S251" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>V</t>
         </is>
       </c>
       <c r="T251" t="inlineStr"/>
       <c r="U251" t="inlineStr"/>
+      <c r="V251" t="inlineStr"/>
+      <c r="W251" t="inlineStr"/>
+      <c r="X251" t="inlineStr"/>
+      <c r="Y251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -17798,135 +18818,143 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="D252" t="n">
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252" t="n">
-        <v>1392374</v>
+        <v>1392373</v>
       </c>
       <c r="G252" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J252" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N252" t="n">
         <v>0</v>
       </c>
       <c r="O252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q252" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="R252" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="S252" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T252" t="inlineStr"/>
       <c r="U252" t="inlineStr"/>
+      <c r="V252" t="inlineStr"/>
+      <c r="W252" t="inlineStr"/>
+      <c r="X252" t="inlineStr"/>
+      <c r="Y252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Atletico Nacional</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="D253" t="n">
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>1392375</v>
+        <v>1392374</v>
       </c>
       <c r="G253" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H253" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J253" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N253" t="n">
         <v>0</v>
       </c>
       <c r="O253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q253" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R253" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="S253" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T253" t="inlineStr"/>
       <c r="U253" t="inlineStr"/>
+      <c r="V253" t="inlineStr"/>
+      <c r="W253" t="inlineStr"/>
+      <c r="X253" t="inlineStr"/>
+      <c r="Y253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -17936,31 +18964,31 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Atletico Nacional</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F254" t="n">
-        <v>1392376</v>
+        <v>1392375</v>
       </c>
       <c r="G254" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J254" t="n">
         <v>5</v>
@@ -17972,22 +19000,22 @@
         <v>1</v>
       </c>
       <c r="M254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N254" t="n">
         <v>0</v>
       </c>
       <c r="O254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q254" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="R254" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="S254" t="inlineStr">
         <is>
@@ -17996,6 +19024,10 @@
       </c>
       <c r="T254" t="inlineStr"/>
       <c r="U254" t="inlineStr"/>
+      <c r="V254" t="inlineStr"/>
+      <c r="W254" t="inlineStr"/>
+      <c r="X254" t="inlineStr"/>
+      <c r="Y254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -18005,12 +19037,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -18020,43 +19052,43 @@
         <v>2</v>
       </c>
       <c r="F255" t="n">
-        <v>1392377</v>
+        <v>1392376</v>
       </c>
       <c r="G255" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H255" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>3</v>
       </c>
       <c r="J255" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
       </c>
       <c r="L255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M255" t="n">
         <v>0</v>
       </c>
       <c r="N255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O255" t="n">
         <v>2</v>
       </c>
       <c r="P255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q255" t="n">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="R255" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="S255" t="inlineStr">
         <is>
@@ -18065,46 +19097,50 @@
       </c>
       <c r="T255" t="inlineStr"/>
       <c r="U255" t="inlineStr"/>
+      <c r="V255" t="inlineStr"/>
+      <c r="W255" t="inlineStr"/>
+      <c r="X255" t="inlineStr"/>
+      <c r="Y255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>America de Cali</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Rionegro Aguilas</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D256" t="n">
         <v>2</v>
       </c>
       <c r="E256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F256" t="n">
-        <v>1392378</v>
+        <v>1392377</v>
       </c>
       <c r="G256" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H256" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I256" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>0</v>
@@ -18119,21 +19155,25 @@
         <v>2</v>
       </c>
       <c r="P256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q256" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R256" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="S256" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T256" t="inlineStr"/>
       <c r="U256" t="inlineStr"/>
+      <c r="V256" t="inlineStr"/>
+      <c r="W256" t="inlineStr"/>
+      <c r="X256" t="inlineStr"/>
+      <c r="Y256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -18143,43 +19183,43 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>America de Cali</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Rionegro Aguilas</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E257" t="n">
         <v>1</v>
       </c>
       <c r="F257" t="n">
-        <v>1392379</v>
+        <v>1392378</v>
       </c>
       <c r="G257" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J257" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L257" t="n">
         <v>0</v>
       </c>
       <c r="M257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N257" t="n">
         <v>0</v>
@@ -18191,18 +19231,22 @@
         <v>1</v>
       </c>
       <c r="Q257" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="R257" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T257" t="inlineStr"/>
       <c r="U257" t="inlineStr"/>
+      <c r="V257" t="inlineStr"/>
+      <c r="W257" t="inlineStr"/>
+      <c r="X257" t="inlineStr"/>
+      <c r="Y257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -18212,40 +19256,40 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Independiente Medellin</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F258" t="n">
-        <v>1392380</v>
+        <v>1392379</v>
       </c>
       <c r="G258" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H258" t="n">
         <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
       </c>
       <c r="L258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M258" t="n">
         <v>0</v>
@@ -18254,93 +19298,101 @@
         <v>0</v>
       </c>
       <c r="O258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q258" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="R258" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T258" t="inlineStr"/>
       <c r="U258" t="inlineStr"/>
+      <c r="V258" t="inlineStr"/>
+      <c r="W258" t="inlineStr"/>
+      <c r="X258" t="inlineStr"/>
+      <c r="Y258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Alianza Petrolera</t>
+          <t>Independiente Medellin</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E259" t="n">
         <v>2</v>
       </c>
       <c r="F259" t="n">
-        <v>1392381</v>
+        <v>1392380</v>
       </c>
       <c r="G259" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K259" t="n">
         <v>0</v>
       </c>
       <c r="L259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M259" t="n">
         <v>0</v>
       </c>
       <c r="N259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q259" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="R259" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="S259" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>V</t>
         </is>
       </c>
       <c r="T259" t="inlineStr"/>
       <c r="U259" t="inlineStr"/>
+      <c r="V259" t="inlineStr"/>
+      <c r="W259" t="inlineStr"/>
+      <c r="X259" t="inlineStr"/>
+      <c r="Y259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -18350,94 +19402,98 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Bucaramanga</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Alianza Petrolera</t>
         </is>
       </c>
       <c r="D260" t="n">
         <v>2</v>
       </c>
       <c r="E260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F260" t="n">
-        <v>1392382</v>
+        <v>1392381</v>
       </c>
       <c r="G260" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H260" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I260" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J260" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>0</v>
       </c>
       <c r="M260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N260" t="n">
         <v>0</v>
       </c>
       <c r="O260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q260" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="R260" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="S260" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T260" t="inlineStr"/>
       <c r="U260" t="inlineStr"/>
+      <c r="V260" t="inlineStr"/>
+      <c r="W260" t="inlineStr"/>
+      <c r="X260" t="inlineStr"/>
+      <c r="Y260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E261" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F261" t="n">
-        <v>1392383</v>
+        <v>1392382</v>
       </c>
       <c r="G261" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H261" t="n">
         <v>4</v>
@@ -18449,7 +19505,7 @@
         <v>4</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L261" t="n">
         <v>0</v>
@@ -18458,19 +19514,19 @@
         <v>0</v>
       </c>
       <c r="N261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P261" t="n">
         <v>1</v>
       </c>
       <c r="Q261" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="R261" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S261" t="inlineStr">
         <is>
@@ -18479,21 +19535,25 @@
       </c>
       <c r="T261" t="inlineStr"/>
       <c r="U261" t="inlineStr"/>
+      <c r="V261" t="inlineStr"/>
+      <c r="W261" t="inlineStr"/>
+      <c r="X261" t="inlineStr"/>
+      <c r="Y261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -18503,19 +19563,19 @@
         <v>1</v>
       </c>
       <c r="F262" t="n">
-        <v>1392384</v>
+        <v>1392383</v>
       </c>
       <c r="G262" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H262" t="n">
         <v>4</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J262" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K262" t="n">
         <v>0</v>
@@ -18536,10 +19596,10 @@
         <v>1</v>
       </c>
       <c r="Q262" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="R262" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="S262" t="inlineStr">
         <is>
@@ -18548,43 +19608,47 @@
       </c>
       <c r="T262" t="inlineStr"/>
       <c r="U262" t="inlineStr"/>
+      <c r="V262" t="inlineStr"/>
+      <c r="W262" t="inlineStr"/>
+      <c r="X262" t="inlineStr"/>
+      <c r="Y262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025-08-02</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="D263" t="n">
         <v>0</v>
       </c>
       <c r="E263" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F263" t="n">
-        <v>1392386</v>
+        <v>1392384</v>
       </c>
       <c r="G263" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I263" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J263" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K263" t="n">
         <v>0</v>
@@ -18602,13 +19666,13 @@
         <v>0</v>
       </c>
       <c r="P263" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q263" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R263" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S263" t="inlineStr">
         <is>
@@ -18617,6 +19681,10 @@
       </c>
       <c r="T263" t="inlineStr"/>
       <c r="U263" t="inlineStr"/>
+      <c r="V263" t="inlineStr"/>
+      <c r="W263" t="inlineStr"/>
+      <c r="X263" t="inlineStr"/>
+      <c r="Y263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -18626,35 +19694,35 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F264" t="n">
-        <v>1392387</v>
+        <v>1392386</v>
       </c>
       <c r="G264" t="n">
+        <v>9</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>4</v>
+      </c>
+      <c r="J264" t="n">
         <v>5</v>
       </c>
-      <c r="H264" t="n">
-        <v>5</v>
-      </c>
-      <c r="I264" t="n">
-        <v>2</v>
-      </c>
-      <c r="J264" t="n">
-        <v>0</v>
-      </c>
       <c r="K264" t="n">
         <v>0</v>
       </c>
@@ -18665,13 +19733,13 @@
         <v>0</v>
       </c>
       <c r="N264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q264" t="n">
         <v>61</v>
@@ -18681,11 +19749,15 @@
       </c>
       <c r="S264" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>V</t>
         </is>
       </c>
       <c r="T264" t="inlineStr"/>
       <c r="U264" t="inlineStr"/>
+      <c r="V264" t="inlineStr"/>
+      <c r="W264" t="inlineStr"/>
+      <c r="X264" t="inlineStr"/>
+      <c r="Y264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -18695,109 +19767,113 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Atletico Nacional</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E265" t="n">
         <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>1392388</v>
+        <v>1392387</v>
       </c>
       <c r="G265" t="n">
         <v>5</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I265" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J265" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K265" t="n">
         <v>0</v>
       </c>
       <c r="L265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N265" t="n">
         <v>0</v>
       </c>
       <c r="O265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P265" t="n">
         <v>0</v>
       </c>
       <c r="Q265" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="R265" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="S265" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T265" t="inlineStr"/>
       <c r="U265" t="inlineStr"/>
+      <c r="V265" t="inlineStr"/>
+      <c r="W265" t="inlineStr"/>
+      <c r="X265" t="inlineStr"/>
+      <c r="Y265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025-08-03</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>America de Cali</t>
+          <t>Atletico Nacional</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F266" t="n">
-        <v>1392389</v>
+        <v>1392388</v>
       </c>
       <c r="G266" t="n">
         <v>5</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>5</v>
       </c>
       <c r="J266" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K266" t="n">
         <v>0</v>
       </c>
       <c r="L266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M266" t="n">
         <v>0</v>
@@ -18806,24 +19882,28 @@
         <v>0</v>
       </c>
       <c r="O266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q266" t="n">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="R266" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="S266" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T266" t="inlineStr"/>
       <c r="U266" t="inlineStr"/>
+      <c r="V266" t="inlineStr"/>
+      <c r="W266" t="inlineStr"/>
+      <c r="X266" t="inlineStr"/>
+      <c r="Y266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -18833,12 +19913,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>America de Cali</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -18848,16 +19928,16 @@
         <v>1</v>
       </c>
       <c r="F267" t="n">
-        <v>1392390</v>
+        <v>1392389</v>
       </c>
       <c r="G267" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H267" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I267" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J267" t="n">
         <v>2</v>
@@ -18869,22 +19949,22 @@
         <v>0</v>
       </c>
       <c r="M267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q267" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R267" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="S267" t="inlineStr">
         <is>
@@ -18893,6 +19973,10 @@
       </c>
       <c r="T267" t="inlineStr"/>
       <c r="U267" t="inlineStr"/>
+      <c r="V267" t="inlineStr"/>
+      <c r="W267" t="inlineStr"/>
+      <c r="X267" t="inlineStr"/>
+      <c r="Y267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -18902,66 +19986,70 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Alianza Petrolera</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Bucaramanga</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F268" t="n">
-        <v>1392391</v>
+        <v>1392390</v>
       </c>
       <c r="G268" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I268" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O268" t="n">
         <v>1</v>
       </c>
       <c r="P268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q268" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="R268" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="S268" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T268" t="inlineStr"/>
       <c r="U268" t="inlineStr"/>
+      <c r="V268" t="inlineStr"/>
+      <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr"/>
+      <c r="Y268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -18971,172 +20059,180 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Independiente Medellin</t>
+          <t>Alianza Petrolera</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="D269" t="n">
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F269" t="n">
-        <v>1392392</v>
+        <v>1392391</v>
       </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H269" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J269" t="n">
         <v>3</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M269" t="n">
         <v>0</v>
       </c>
       <c r="N269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O269" t="n">
         <v>1</v>
       </c>
       <c r="P269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q269" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="R269" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="S269" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>V</t>
         </is>
       </c>
       <c r="T269" t="inlineStr"/>
       <c r="U269" t="inlineStr"/>
+      <c r="V269" t="inlineStr"/>
+      <c r="W269" t="inlineStr"/>
+      <c r="X269" t="inlineStr"/>
+      <c r="Y269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Rionegro Aguilas</t>
+          <t>Independiente Medellin</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>1392393</v>
+        <v>1392392</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I270" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J270" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>0</v>
       </c>
       <c r="M270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N270" t="n">
         <v>0</v>
       </c>
       <c r="O270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q270" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R270" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="S270" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T270" t="inlineStr"/>
       <c r="U270" t="inlineStr"/>
+      <c r="V270" t="inlineStr"/>
+      <c r="W270" t="inlineStr"/>
+      <c r="X270" t="inlineStr"/>
+      <c r="Y270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Rionegro Aguilas</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F271" t="n">
-        <v>1392394</v>
+        <v>1392393</v>
       </c>
       <c r="G271" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I271" t="n">
         <v>4</v>
       </c>
       <c r="J271" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K271" t="n">
         <v>1</v>
@@ -19145,7 +20241,7 @@
         <v>0</v>
       </c>
       <c r="M271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N271" t="n">
         <v>0</v>
@@ -19154,13 +20250,13 @@
         <v>1</v>
       </c>
       <c r="P271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q271" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="R271" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="S271" t="inlineStr">
         <is>
@@ -19169,6 +20265,959 @@
       </c>
       <c r="T271" t="inlineStr"/>
       <c r="U271" t="inlineStr"/>
+      <c r="V271" t="inlineStr"/>
+      <c r="W271" t="inlineStr"/>
+      <c r="X271" t="inlineStr"/>
+      <c r="Y271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1392394</v>
+      </c>
+      <c r="G272" t="n">
+        <v>5</v>
+      </c>
+      <c r="H272" t="n">
+        <v>2</v>
+      </c>
+      <c r="I272" t="n">
+        <v>4</v>
+      </c>
+      <c r="J272" t="n">
+        <v>5</v>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>52</v>
+      </c>
+      <c r="R272" t="n">
+        <v>48</v>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr"/>
+      <c r="U272" t="inlineStr"/>
+      <c r="V272" t="inlineStr"/>
+      <c r="W272" t="inlineStr"/>
+      <c r="X272" t="inlineStr"/>
+      <c r="Y272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Atletico Nacional</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>3</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1392396</v>
+      </c>
+      <c r="G273" t="n">
+        <v>5</v>
+      </c>
+      <c r="H273" t="n">
+        <v>6</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>3</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0</v>
+      </c>
+      <c r="O273" t="n">
+        <v>2</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>55</v>
+      </c>
+      <c r="R273" t="n">
+        <v>45</v>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr"/>
+      <c r="U273" t="inlineStr"/>
+      <c r="V273" t="inlineStr"/>
+      <c r="W273" t="inlineStr"/>
+      <c r="X273" t="inlineStr"/>
+      <c r="Y273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>3</v>
+      </c>
+      <c r="E274" t="n">
+        <v>3</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1392397</v>
+      </c>
+      <c r="G274" t="n">
+        <v>7</v>
+      </c>
+      <c r="H274" t="n">
+        <v>4</v>
+      </c>
+      <c r="I274" t="n">
+        <v>3</v>
+      </c>
+      <c r="J274" t="n">
+        <v>3</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>2</v>
+      </c>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+      <c r="O274" t="n">
+        <v>1</v>
+      </c>
+      <c r="P274" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>52</v>
+      </c>
+      <c r="R274" t="n">
+        <v>48</v>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr"/>
+      <c r="U274" t="inlineStr"/>
+      <c r="V274" t="inlineStr"/>
+      <c r="W274" t="inlineStr"/>
+      <c r="X274" t="inlineStr"/>
+      <c r="Y274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Rionegro Aguilas</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>1</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1392398</v>
+      </c>
+      <c r="G275" t="n">
+        <v>8</v>
+      </c>
+      <c r="H275" t="n">
+        <v>7</v>
+      </c>
+      <c r="I275" t="n">
+        <v>3</v>
+      </c>
+      <c r="J275" t="n">
+        <v>3</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+      <c r="O275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>58</v>
+      </c>
+      <c r="R275" t="n">
+        <v>42</v>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr"/>
+      <c r="U275" t="inlineStr"/>
+      <c r="V275" t="inlineStr"/>
+      <c r="W275" t="inlineStr"/>
+      <c r="X275" t="inlineStr"/>
+      <c r="Y275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>America de Cali</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1392399</v>
+      </c>
+      <c r="G276" t="n">
+        <v>3</v>
+      </c>
+      <c r="H276" t="n">
+        <v>4</v>
+      </c>
+      <c r="I276" t="n">
+        <v>2</v>
+      </c>
+      <c r="J276" t="n">
+        <v>4</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+      <c r="O276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>56</v>
+      </c>
+      <c r="R276" t="n">
+        <v>44</v>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr"/>
+      <c r="U276" t="inlineStr"/>
+      <c r="V276" t="inlineStr"/>
+      <c r="W276" t="inlineStr"/>
+      <c r="X276" t="inlineStr"/>
+      <c r="Y276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Bucaramanga</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>2</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1392400</v>
+      </c>
+      <c r="G277" t="n">
+        <v>3</v>
+      </c>
+      <c r="H277" t="n">
+        <v>3</v>
+      </c>
+      <c r="I277" t="n">
+        <v>3</v>
+      </c>
+      <c r="J277" t="n">
+        <v>2</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+      <c r="O277" t="n">
+        <v>1</v>
+      </c>
+      <c r="P277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>57</v>
+      </c>
+      <c r="R277" t="n">
+        <v>43</v>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr"/>
+      <c r="U277" t="inlineStr"/>
+      <c r="V277" t="inlineStr"/>
+      <c r="W277" t="inlineStr"/>
+      <c r="X277" t="inlineStr"/>
+      <c r="Y277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>1</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1392401</v>
+      </c>
+      <c r="G278" t="n">
+        <v>3</v>
+      </c>
+      <c r="H278" t="n">
+        <v>8</v>
+      </c>
+      <c r="I278" t="n">
+        <v>7</v>
+      </c>
+      <c r="J278" t="n">
+        <v>3</v>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0</v>
+      </c>
+      <c r="O278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P278" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>32</v>
+      </c>
+      <c r="R278" t="n">
+        <v>68</v>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr"/>
+      <c r="U278" t="inlineStr"/>
+      <c r="V278" t="inlineStr"/>
+      <c r="W278" t="inlineStr"/>
+      <c r="X278" t="inlineStr"/>
+      <c r="Y278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1392402</v>
+      </c>
+      <c r="G279" t="n">
+        <v>4</v>
+      </c>
+      <c r="H279" t="n">
+        <v>7</v>
+      </c>
+      <c r="I279" t="n">
+        <v>3</v>
+      </c>
+      <c r="J279" t="n">
+        <v>7</v>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0</v>
+      </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>41</v>
+      </c>
+      <c r="R279" t="n">
+        <v>59</v>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr"/>
+      <c r="U279" t="inlineStr"/>
+      <c r="V279" t="inlineStr"/>
+      <c r="W279" t="inlineStr"/>
+      <c r="X279" t="inlineStr"/>
+      <c r="Y279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Independiente Medellin</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1392403</v>
+      </c>
+      <c r="G280" t="n">
+        <v>8</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>2</v>
+      </c>
+      <c r="J280" t="n">
+        <v>2</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0</v>
+      </c>
+      <c r="O280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P280" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>54</v>
+      </c>
+      <c r="R280" t="n">
+        <v>46</v>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr"/>
+      <c r="U280" t="inlineStr"/>
+      <c r="V280" t="inlineStr"/>
+      <c r="W280" t="inlineStr"/>
+      <c r="X280" t="inlineStr"/>
+      <c r="Y280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1392395</v>
+      </c>
+      <c r="G281" t="n">
+        <v>3</v>
+      </c>
+      <c r="H281" t="n">
+        <v>2</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="n">
+        <v>3</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0</v>
+      </c>
+      <c r="O281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>64</v>
+      </c>
+      <c r="R281" t="n">
+        <v>36</v>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr"/>
+      <c r="U281" t="inlineStr"/>
+      <c r="V281" t="inlineStr"/>
+      <c r="W281" t="inlineStr"/>
+      <c r="X281" t="inlineStr"/>
+      <c r="Y281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>3</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1392405</v>
+      </c>
+      <c r="G282" t="n">
+        <v>4</v>
+      </c>
+      <c r="H282" t="n">
+        <v>8</v>
+      </c>
+      <c r="I282" t="n">
+        <v>4</v>
+      </c>
+      <c r="J282" t="n">
+        <v>2</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0</v>
+      </c>
+      <c r="O282" t="n">
+        <v>2</v>
+      </c>
+      <c r="P282" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>47</v>
+      </c>
+      <c r="R282" t="n">
+        <v>53</v>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr"/>
+      <c r="U282" t="inlineStr"/>
+      <c r="V282" t="inlineStr"/>
+      <c r="W282" t="inlineStr"/>
+      <c r="X282" t="inlineStr"/>
+      <c r="Y282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>America de Cali</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>2</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1</v>
+      </c>
+      <c r="F283" t="n">
+        <v>1392411</v>
+      </c>
+      <c r="G283" t="n">
+        <v>5</v>
+      </c>
+      <c r="H283" t="n">
+        <v>5</v>
+      </c>
+      <c r="I283" t="n">
+        <v>4</v>
+      </c>
+      <c r="J283" t="n">
+        <v>4</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="n">
+        <v>1</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0</v>
+      </c>
+      <c r="O283" t="n">
+        <v>1</v>
+      </c>
+      <c r="P283" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>61</v>
+      </c>
+      <c r="R283" t="n">
+        <v>39</v>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr"/>
+      <c r="U283" t="inlineStr"/>
+      <c r="V283" t="inlineStr"/>
+      <c r="W283" t="inlineStr"/>
+      <c r="X283" t="inlineStr"/>
+      <c r="Y283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1392385</v>
+      </c>
+      <c r="G284" t="n">
+        <v>5</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>8</v>
+      </c>
+      <c r="J284" t="n">
+        <v>7</v>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>1</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>62</v>
+      </c>
+      <c r="R284" t="n">
+        <v>38</v>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr"/>
+      <c r="U284" t="inlineStr"/>
+      <c r="V284" t="inlineStr"/>
+      <c r="W284" t="inlineStr"/>
+      <c r="X284" t="inlineStr"/>
+      <c r="Y284" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
